--- a/History/CHRNE_NHW_HARP_hist.xlsx
+++ b/History/CHRNE_NHW_HARP_hist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\MITRE\RA_Duty_Scheduler\History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF154169-333E-4FDD-9008-5BBE9ADA5B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FF2FE3-F893-4997-8151-5CAF48FDA555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3414" yWindow="1518" windowWidth="17568" windowHeight="9498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
